--- a/CPE Electives (1 - 3)/01. Lectures Notebook/31. Time-Series - Rolling & Expanding/Rolling Mean & Expanding.xlsx
+++ b/CPE Electives (1 - 3)/01. Lectures Notebook/31. Time-Series - Rolling & Expanding/Rolling Mean & Expanding.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\public_files\CPE Electives (1 - 3)\01. Lectures Notebook\31. Time-Series - Rolling &amp; Expanding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B405239-B302-4821-8117-A5FCE7EB6231}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1323C8-8B01-4B11-A30C-377C8DC10ADF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C7173970-4CCE-4D1B-BBE4-4F5C165329BB}"/>
   </bookViews>
@@ -31,17 +31,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>NaN</t>
+  </si>
+  <si>
+    <t>5 Periods</t>
+  </si>
+  <si>
+    <t>Window = 2</t>
+  </si>
+  <si>
+    <t>Window = 5</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>W2</t>
+  </si>
+  <si>
+    <t>W5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -93,15 +119,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,124 +462,291 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80F6F05-B967-4860-97D0-1101DDA97D52}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="2.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
         <v>38.006100000000004</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="D3" s="6">
+        <v>38.006100000000004</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
         <v>37.278100000000002</v>
       </c>
-      <c r="B2" s="2">
-        <f>AVERAGE(A1:A2)</f>
+      <c r="B4" s="7">
+        <f>AVERAGE(A3:A4)</f>
         <v>37.642099999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="D4" s="6">
+        <v>37.278100000000002</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
         <v>36.974800000000002</v>
       </c>
-      <c r="B3" s="3">
-        <f t="shared" ref="B3:B5" si="0">AVERAGE(A2:A3)</f>
+      <c r="B5" s="8">
+        <f t="shared" ref="B5:B7" si="0">AVERAGE(A4:A5)</f>
         <v>37.126450000000006</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="D5" s="6">
+        <v>36.974800000000002</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
         <v>37.884799999999998</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B6" s="9">
         <f t="shared" si="0"/>
         <v>37.4298</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="D6" s="6">
+        <v>37.884799999999998</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>38.496099999999998</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>38.190449999999998</v>
       </c>
+      <c r="D7" s="6">
+        <v>38.496099999999998</v>
+      </c>
+      <c r="E7" s="5">
+        <f>AVERAGE(D3:D7)</f>
+        <v>37.727980000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D8" s="6">
+        <v>37.2361</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" ref="E8:E12" si="1">AVERAGE(D4:D8)</f>
+        <v>37.573979999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D9" s="6">
+        <v>37.441499999999998</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="1"/>
+        <v>37.606659999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D10" s="6">
+        <v>37.740099999999998</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="1"/>
+        <v>37.759719999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D11" s="6">
+        <v>37.530099999999997</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="1"/>
+        <v>37.688779999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D12" s="6">
+        <v>37.138100000000001</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="1"/>
+        <v>37.417180000000002</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="E7:E12" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54154776-CD65-44E1-86CB-0D7ACFF98B51}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="3.77734375" customWidth="1"/>
+    <col min="4" max="4" width="4.109375" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>87.45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>145.07</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>123.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>109.87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>65.599999999999994</v>
-      </c>
-      <c r="B5">
-        <f>AVERAGE(A1:A5)</f>
-        <v>106.23799999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>65.930000000000007</v>
-      </c>
-      <c r="B6">
-        <f>AVERAGE(A1:A6)</f>
-        <v>99.519999999999982</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>55.81</v>
-      </c>
-      <c r="B7">
-        <f>AVERAGE(A1:A7)</f>
-        <v>93.275714285714258</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>38.006100000000004</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2">
+        <v>38.006100000000004</v>
+      </c>
+      <c r="E3" s="2">
+        <v>38.006100000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>37.278100000000002</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2">
+        <v>37.278100000000002</v>
+      </c>
+      <c r="E4" s="2">
+        <v>37.278100000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>36.974800000000002</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2">
+        <v>36.974800000000002</v>
+      </c>
+      <c r="E5" s="2">
+        <v>36.974800000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>37.884799999999998</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2">
+        <v>37.884799999999998</v>
+      </c>
+      <c r="E6" s="2">
+        <v>37.884799999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>38.496099999999998</v>
+      </c>
+      <c r="C7" s="2">
+        <v>38.496099999999998</v>
+      </c>
+      <c r="E7" s="2">
+        <v>38.496099999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C8" s="2">
+        <v>37.2361</v>
+      </c>
+      <c r="E8" s="2">
+        <v>37.2361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <f>AVERAGE(A3:A7)</f>
+        <v>37.727980000000002</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="E9" s="2">
+        <v>37.441499999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C10" s="1">
+        <f>AVERAGE(C3:C8)</f>
+        <v>37.646000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" s="1">
+        <f>AVERAGE(E3:E9)</f>
+        <v>37.616785714285712</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>